--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2507.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2507.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.908249826865843</v>
+        <v>1.615195631980896</v>
       </c>
       <c r="B1">
-        <v>4.544140180448419</v>
+        <v>2.799104928970337</v>
       </c>
       <c r="C1">
-        <v>2.708833669978173</v>
+        <v>3.288551092147827</v>
       </c>
       <c r="D1">
-        <v>2.462895992083308</v>
+        <v>3.676680088043213</v>
       </c>
       <c r="E1">
-        <v>3.109784001668018</v>
+        <v>1.234872102737427</v>
       </c>
     </row>
   </sheetData>
